--- a/汇总.xlsx
+++ b/汇总.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG94"/>
+  <dimension ref="A1:AY94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,6 +599,96 @@
           <t>NewColumn2</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 1</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 2</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>NewColumn1</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>NewColumn2</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 1</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 2</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 3</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>NewColumn1</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>NewColumn2</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 1</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 2</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 3</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>NewColumn1</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>NewColumn2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -718,6 +808,72 @@
       </c>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>店铺</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>广告SKU</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>14天总销售额</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>花费</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>店铺</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>广告SKU</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>14天总销售额</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>花费</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>店铺</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>广告SKU</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>14天总销售额</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>花费</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -819,9 +975,67 @@
       </c>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Y1037</t>
+        </is>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Y1037</t>
+        </is>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>Y1037</t>
+        </is>
+      </c>
+      <c r="AV3" t="n">
+        <v>52.96</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Y1038-BL</t>
@@ -835,7 +1049,11 @@
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>Y1038-BL</t>
@@ -849,7 +1067,11 @@
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>Y1038-BL</t>
@@ -908,9 +1130,67 @@
       </c>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Y1038-BU</t>
+        </is>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.01156</v>
+      </c>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Y1038-BU</t>
+        </is>
+      </c>
+      <c r="AP4" t="n">
+        <v>19.98</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.01336</v>
+      </c>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>Y1038-BU</t>
+        </is>
+      </c>
+      <c r="AV4" t="n">
+        <v>19.98</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.02925</v>
+      </c>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Y1038-BL-1</t>
@@ -924,7 +1204,11 @@
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>Y1038-BL-1</t>
@@ -938,7 +1222,11 @@
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>Y1038-BL-1</t>
@@ -997,9 +1285,67 @@
       </c>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>Y1038-GL</t>
+        </is>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.01647</v>
+      </c>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Y1038-GL</t>
+        </is>
+      </c>
+      <c r="AP5" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.02663</v>
+      </c>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>Y1038-GL</t>
+        </is>
+      </c>
+      <c r="AV5" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.03446</v>
+      </c>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Y1038-BLACK</t>
@@ -1013,7 +1359,11 @@
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>Y1038-BLACK</t>
@@ -1027,7 +1377,11 @@
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
           <t>Y1038-BLACK</t>
@@ -1086,9 +1440,67 @@
       </c>
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>Y1038-PU</t>
+        </is>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.00593</v>
+      </c>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Y1038-PU</t>
+        </is>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.00908</v>
+      </c>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>Y1038-PU</t>
+        </is>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.01579</v>
+      </c>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Y1038-PU</t>
@@ -1102,7 +1514,11 @@
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>Y1038-PU</t>
@@ -1116,7 +1532,11 @@
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr">
         <is>
           <t>Y1038-PU</t>
@@ -1175,9 +1595,67 @@
       </c>
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>Y1038-SI</t>
+        </is>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.02277</v>
+      </c>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Y1038-SI</t>
+        </is>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.05517</v>
+      </c>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>Y1038-SI</t>
+        </is>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.05517</v>
+      </c>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Y1038-SI</t>
@@ -1191,7 +1669,11 @@
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>Y1038-SI</t>
@@ -1205,7 +1687,11 @@
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
           <t>Y1038-SI</t>
@@ -1264,9 +1750,67 @@
       </c>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>Y1054</t>
+        </is>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>2.56919</v>
+      </c>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Y1054</t>
+        </is>
+      </c>
+      <c r="AP8" t="n">
+        <v>35.98</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>7.08847</v>
+      </c>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>Y1054</t>
+        </is>
+      </c>
+      <c r="AV8" t="n">
+        <v>35.98</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>7.08847</v>
+      </c>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Y1038-SILVER</t>
@@ -1280,7 +1824,11 @@
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>Y1038-SILVER</t>
@@ -1294,7 +1842,11 @@
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
           <t>Y1038-SILVER</t>
@@ -1353,9 +1905,67 @@
       </c>
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>Y1054-ZH</t>
+        </is>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.07546</v>
+      </c>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Y1054-ZH</t>
+        </is>
+      </c>
+      <c r="AP9" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>12.3712</v>
+      </c>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU9" t="inlineStr">
+        <is>
+          <t>Y1054-ZH</t>
+        </is>
+      </c>
+      <c r="AV9" t="n">
+        <v>52.96</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>12.68192</v>
+      </c>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Y1041-BU</t>
@@ -1369,7 +1979,11 @@
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>Y1041-BU</t>
@@ -1383,7 +1997,11 @@
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr">
         <is>
           <t>Y1041-BU</t>
@@ -1442,9 +2060,67 @@
       </c>
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>Y1055</t>
+        </is>
+      </c>
+      <c r="AJ10" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>2.53821</v>
+      </c>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Y1055</t>
+        </is>
+      </c>
+      <c r="AP10" t="n">
+        <v>68.97</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>8.321059999999999</v>
+      </c>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>Y1055</t>
+        </is>
+      </c>
+      <c r="AV10" t="n">
+        <v>92.95999999999999</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>8.69064</v>
+      </c>
+      <c r="AX10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Y1041-RE</t>
@@ -1458,7 +2134,11 @@
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
           <t>Y1041-RE</t>
@@ -1472,7 +2152,11 @@
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr">
         <is>
           <t>Y1041-RE</t>
@@ -1531,9 +2215,67 @@
       </c>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>Y1056</t>
+        </is>
+      </c>
+      <c r="AJ11" t="n">
+        <v>28.98</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>3.6539</v>
+      </c>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Y1055-ZH</t>
+        </is>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t>Y1055-ZH</t>
+        </is>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Y1054</t>
@@ -1547,7 +2289,11 @@
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>Y1054</t>
@@ -1561,7 +2307,11 @@
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr">
         <is>
           <t>Y1054</t>
@@ -1620,9 +2370,67 @@
       </c>
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>Y1057</t>
+        </is>
+      </c>
+      <c r="AJ12" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.20066</v>
+      </c>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Y1056</t>
+        </is>
+      </c>
+      <c r="AP12" t="n">
+        <v>53.97</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>7.6008</v>
+      </c>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU12" t="inlineStr">
+        <is>
+          <t>Y1056</t>
+        </is>
+      </c>
+      <c r="AV12" t="n">
+        <v>72.95999999999999</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>8.04514</v>
+      </c>
+      <c r="AX12" t="inlineStr"/>
+      <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Y1054-ZH</t>
@@ -1636,7 +2444,11 @@
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>Y1054-ZH</t>
@@ -1650,7 +2462,11 @@
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr">
         <is>
           <t>Y1054-ZH</t>
@@ -1709,9 +2525,67 @@
       </c>
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>Y1057-ZH</t>
+        </is>
+      </c>
+      <c r="AJ13" t="n">
+        <v>39.98</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>8.075609999999999</v>
+      </c>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Y1057</t>
+        </is>
+      </c>
+      <c r="AP13" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.30845</v>
+      </c>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU13" t="inlineStr">
+        <is>
+          <t>Y1057</t>
+        </is>
+      </c>
+      <c r="AV13" t="n">
+        <v>101.95</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0.68068</v>
+      </c>
+      <c r="AX13" t="inlineStr"/>
+      <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Y1055</t>
@@ -1725,7 +2599,11 @@
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>Y1055</t>
@@ -1739,7 +2617,11 @@
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr">
         <is>
           <t>Y1055</t>
@@ -1798,9 +2680,67 @@
       </c>
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>Y1058</t>
+        </is>
+      </c>
+      <c r="AJ14" t="n">
+        <v>75.97</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>2.54907</v>
+      </c>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Y1057-ZH</t>
+        </is>
+      </c>
+      <c r="AP14" t="n">
+        <v>126.92</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>14.89749</v>
+      </c>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU14" t="inlineStr">
+        <is>
+          <t>Y1057-ZH</t>
+        </is>
+      </c>
+      <c r="AV14" t="n">
+        <v>194.87</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>15.24076</v>
+      </c>
+      <c r="AX14" t="inlineStr"/>
+      <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Y1056</t>
@@ -1814,7 +2754,11 @@
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>Y1056</t>
@@ -1828,7 +2772,11 @@
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr">
         <is>
           <t>Y1056</t>
@@ -1887,9 +2835,67 @@
       </c>
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>Y1058-ZH</t>
+        </is>
+      </c>
+      <c r="AJ15" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>5.44915</v>
+      </c>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Y1058</t>
+        </is>
+      </c>
+      <c r="AP15" t="n">
+        <v>75.97</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>6.09286</v>
+      </c>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU15" t="inlineStr">
+        <is>
+          <t>Y1058</t>
+        </is>
+      </c>
+      <c r="AV15" t="n">
+        <v>230.1</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>6.45643</v>
+      </c>
+      <c r="AX15" t="inlineStr"/>
+      <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Y1057</t>
@@ -1903,7 +2909,11 @@
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
           <t>Y1057</t>
@@ -1917,7 +2927,11 @@
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr">
         <is>
           <t>Y1057</t>
@@ -1976,9 +2990,67 @@
       </c>
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>Y1059-SI</t>
+        </is>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.17968</v>
+      </c>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Y1058-ZH</t>
+        </is>
+      </c>
+      <c r="AP16" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>11.26189</v>
+      </c>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU16" t="inlineStr">
+        <is>
+          <t>Y1058-ZH</t>
+        </is>
+      </c>
+      <c r="AV16" t="n">
+        <v>163.89</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>11.63104</v>
+      </c>
+      <c r="AX16" t="inlineStr"/>
+      <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Y1057-ZH</t>
@@ -1992,7 +3064,11 @@
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
           <t>Y1057-ZH</t>
@@ -2006,7 +3082,11 @@
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr">
         <is>
           <t>Y1057-ZH</t>
@@ -2065,9 +3145,67 @@
       </c>
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>Y1060-BL</t>
+        </is>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.14572</v>
+      </c>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Y1059-BL</t>
+        </is>
+      </c>
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
+      <c r="AT17" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU17" t="inlineStr">
+        <is>
+          <t>Y1059-BL</t>
+        </is>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="inlineStr"/>
+      <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Y1058-ZH</t>
@@ -2081,7 +3219,11 @@
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
           <t>Y1058-ZH</t>
@@ -2095,7 +3237,11 @@
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr">
         <is>
           <t>Y1058-ZH</t>
@@ -2154,9 +3300,67 @@
       </c>
       <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>Y1060-GR</t>
+        </is>
+      </c>
+      <c r="AJ18" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0.14323</v>
+      </c>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Y1059-SI</t>
+        </is>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0.29539</v>
+      </c>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
+      <c r="AT18" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU18" t="inlineStr">
+        <is>
+          <t>Y1059-SI</t>
+        </is>
+      </c>
+      <c r="AV18" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0.65372</v>
+      </c>
+      <c r="AX18" t="inlineStr"/>
+      <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Y1059-SI</t>
@@ -2170,7 +3374,11 @@
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
           <t>Y1059-SI</t>
@@ -2184,7 +3392,11 @@
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr">
         <is>
           <t>Y1059-SI</t>
@@ -2243,9 +3455,67 @@
       </c>
       <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>Y1060-GR-ZH</t>
+        </is>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.12277</v>
+      </c>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Y1060-BL</t>
+        </is>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.27138</v>
+      </c>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
+      <c r="AT19" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU19" t="inlineStr">
+        <is>
+          <t>Y1060-BL</t>
+        </is>
+      </c>
+      <c r="AV19" t="n">
+        <v>69.97</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0.6204499999999999</v>
+      </c>
+      <c r="AX19" t="inlineStr"/>
+      <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Y1060-GR-ZH</t>
@@ -2259,7 +3529,11 @@
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
           <t>Y1060-GR-ZH</t>
@@ -2273,7 +3547,11 @@
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr">
         <is>
           <t>Y1060-GR-ZH</t>
@@ -2332,9 +3610,67 @@
       </c>
       <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>Y1060-ZH-</t>
+        </is>
+      </c>
+      <c r="AJ20" t="n">
+        <v>24.98</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.19053</v>
+      </c>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Y1060-GR</t>
+        </is>
+      </c>
+      <c r="AP20" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.26818</v>
+      </c>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU20" t="inlineStr">
+        <is>
+          <t>Y1060-GR</t>
+        </is>
+      </c>
+      <c r="AV20" t="n">
+        <v>34.97</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0.62779</v>
+      </c>
+      <c r="AX20" t="inlineStr"/>
+      <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Y1065-BE</t>
@@ -2348,7 +3684,11 @@
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
           <t>Y1065-BE</t>
@@ -2362,7 +3702,11 @@
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr">
         <is>
           <t>Y1065-BE</t>
@@ -2421,9 +3765,67 @@
       </c>
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>Y1061</t>
+        </is>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.18493</v>
+      </c>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Y1060-GR-ZH</t>
+        </is>
+      </c>
+      <c r="AP21" t="n">
+        <v>17.99</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.29346</v>
+      </c>
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="inlineStr"/>
+      <c r="AT21" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU21" t="inlineStr">
+        <is>
+          <t>Y1060-GR-ZH</t>
+        </is>
+      </c>
+      <c r="AV21" t="n">
+        <v>66.16</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0.54504</v>
+      </c>
+      <c r="AX21" t="inlineStr"/>
+      <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Y1065-BL</t>
@@ -2437,7 +3839,11 @@
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
           <t>Y1065-BL</t>
@@ -2451,7 +3857,11 @@
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr">
         <is>
           <t>Y1065-BL</t>
@@ -2510,9 +3920,67 @@
       </c>
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>Y1071-BG</t>
+        </is>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.00834</v>
+      </c>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Y1060-ZH-</t>
+        </is>
+      </c>
+      <c r="AP22" t="n">
+        <v>42.97</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.34829</v>
+      </c>
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="inlineStr"/>
+      <c r="AT22" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU22" t="inlineStr">
+        <is>
+          <t>Y1060-ZH-</t>
+        </is>
+      </c>
+      <c r="AV22" t="n">
+        <v>103.93</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1.47707</v>
+      </c>
+      <c r="AX22" t="inlineStr"/>
+      <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Y1066-BE</t>
@@ -2526,7 +3994,11 @@
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
           <t>Y1066-BE</t>
@@ -2540,7 +4012,11 @@
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr">
         <is>
           <t>Y1066-BE</t>
@@ -2599,9 +4075,67 @@
       </c>
       <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>Y1071-BL</t>
+        </is>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0.02135</v>
+      </c>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Y1061</t>
+        </is>
+      </c>
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0.28636</v>
+      </c>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr"/>
+      <c r="AT23" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU23" t="inlineStr">
+        <is>
+          <t>Y1061</t>
+        </is>
+      </c>
+      <c r="AV23" t="n">
+        <v>101.95</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>0.66299</v>
+      </c>
+      <c r="AX23" t="inlineStr"/>
+      <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Y1066-BL</t>
@@ -2615,7 +4149,11 @@
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
           <t>Y1066-BL</t>
@@ -2629,7 +4167,11 @@
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr">
         <is>
           <t>Y1066-BL</t>
@@ -2688,9 +4230,67 @@
       </c>
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>Y1071-MG</t>
+        </is>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0.01198</v>
+      </c>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Y1065-BE</t>
+        </is>
+      </c>
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="inlineStr"/>
+      <c r="AS24" t="inlineStr"/>
+      <c r="AT24" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU24" t="inlineStr">
+        <is>
+          <t>Y1065-BE</t>
+        </is>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX24" t="inlineStr"/>
+      <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Y1066-GA</t>
@@ -2704,7 +4304,11 @@
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
           <t>Y1066-GA</t>
@@ -2718,7 +4322,11 @@
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr">
         <is>
           <t>Y1066-GA</t>
@@ -2777,9 +4385,67 @@
       </c>
       <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>Y1071-WH</t>
+        </is>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.01064</v>
+      </c>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Y1065-BL</t>
+        </is>
+      </c>
+      <c r="AP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="inlineStr"/>
+      <c r="AS25" t="inlineStr"/>
+      <c r="AT25" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU25" t="inlineStr">
+        <is>
+          <t>Y1065-BL</t>
+        </is>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX25" t="inlineStr"/>
+      <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Y1071-WH</t>
@@ -2793,7 +4459,11 @@
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
           <t>Y1071-WH</t>
@@ -2807,7 +4477,11 @@
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr">
         <is>
           <t>Y1071-WH</t>
@@ -2866,9 +4540,67 @@
       </c>
       <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>Y1073-BG</t>
+        </is>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.0123</v>
+      </c>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>Y1065-GA</t>
+        </is>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="inlineStr"/>
+      <c r="AS26" t="inlineStr"/>
+      <c r="AT26" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU26" t="inlineStr">
+        <is>
+          <t>Y1065-GA</t>
+        </is>
+      </c>
+      <c r="AV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX26" t="inlineStr"/>
+      <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Y1073-BL</t>
@@ -2882,7 +4614,11 @@
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
           <t>Y1073-BL</t>
@@ -2896,7 +4632,11 @@
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr">
         <is>
           <t>Y1073-BL</t>
@@ -2955,9 +4695,67 @@
       </c>
       <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>Y1074-BG</t>
+        </is>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0.01686</v>
+      </c>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Y1066-BE</t>
+        </is>
+      </c>
+      <c r="AP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="inlineStr"/>
+      <c r="AS27" t="inlineStr"/>
+      <c r="AT27" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU27" t="inlineStr">
+        <is>
+          <t>Y1066-BE</t>
+        </is>
+      </c>
+      <c r="AV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX27" t="inlineStr"/>
+      <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Y1074-WH</t>
@@ -2971,7 +4769,11 @@
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
           <t>Y1074-WH</t>
@@ -2985,7 +4787,11 @@
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr">
         <is>
           <t>Y1074-WH</t>
@@ -3044,9 +4850,67 @@
       </c>
       <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>Y1074-BL</t>
+        </is>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0.01558</v>
+      </c>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>Y1066-BL</t>
+        </is>
+      </c>
+      <c r="AP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="inlineStr"/>
+      <c r="AS28" t="inlineStr"/>
+      <c r="AT28" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU28" t="inlineStr">
+        <is>
+          <t>Y1066-BL</t>
+        </is>
+      </c>
+      <c r="AV28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX28" t="inlineStr"/>
+      <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Y1076-BL</t>
@@ -3060,7 +4924,11 @@
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
           <t>Y1076-BL</t>
@@ -3074,7 +4942,11 @@
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr">
         <is>
           <t>Y1076-BL</t>
@@ -3133,9 +5005,67 @@
       </c>
       <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>Y1074-MG</t>
+        </is>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0.0112</v>
+      </c>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>Y1066-GA</t>
+        </is>
+      </c>
+      <c r="AP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR29" t="inlineStr"/>
+      <c r="AS29" t="inlineStr"/>
+      <c r="AT29" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU29" t="inlineStr">
+        <is>
+          <t>Y1066-GA</t>
+        </is>
+      </c>
+      <c r="AV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX29" t="inlineStr"/>
+      <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Y1078-WH</t>
@@ -3149,7 +5079,11 @@
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
           <t>Y1078-WH</t>
@@ -3163,7 +5097,11 @@
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr">
         <is>
           <t>Y1078-WH</t>
@@ -3222,9 +5160,67 @@
       </c>
       <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>Y1075-BG</t>
+        </is>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0.04397</v>
+      </c>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Y1071-BG</t>
+        </is>
+      </c>
+      <c r="AP30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.03556</v>
+      </c>
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="inlineStr"/>
+      <c r="AT30" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU30" t="inlineStr">
+        <is>
+          <t>Y1071-BG</t>
+        </is>
+      </c>
+      <c r="AV30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>0.05079</v>
+      </c>
+      <c r="AX30" t="inlineStr"/>
+      <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Y1079-BL</t>
@@ -3238,7 +5234,11 @@
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
           <t>Y1079-BL</t>
@@ -3252,7 +5252,11 @@
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr">
         <is>
           <t>Y1079-BL</t>
@@ -3311,9 +5315,67 @@
       </c>
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>Y1075-BL</t>
+        </is>
+      </c>
+      <c r="AJ31" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0.04563</v>
+      </c>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Y1071-BL</t>
+        </is>
+      </c>
+      <c r="AP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0.02709</v>
+      </c>
+      <c r="AR31" t="inlineStr"/>
+      <c r="AS31" t="inlineStr"/>
+      <c r="AT31" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU31" t="inlineStr">
+        <is>
+          <t>Y1071-BL</t>
+        </is>
+      </c>
+      <c r="AV31" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>0.03903</v>
+      </c>
+      <c r="AX31" t="inlineStr"/>
+      <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Y1079-WH</t>
@@ -3327,7 +5389,11 @@
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
           <t>Y1079-WH</t>
@@ -3341,7 +5407,11 @@
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr">
         <is>
           <t>Y1079-WH</t>
@@ -3400,9 +5470,67 @@
       </c>
       <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>Y1075-MG</t>
+        </is>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0.03438</v>
+      </c>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>Y1071-MG</t>
+        </is>
+      </c>
+      <c r="AP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0.02656</v>
+      </c>
+      <c r="AR32" t="inlineStr"/>
+      <c r="AS32" t="inlineStr"/>
+      <c r="AT32" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU32" t="inlineStr">
+        <is>
+          <t>Y1071-MG</t>
+        </is>
+      </c>
+      <c r="AV32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>0.03473</v>
+      </c>
+      <c r="AX32" t="inlineStr"/>
+      <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Y1081-RE</t>
@@ -3416,7 +5544,11 @@
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
           <t>Y1080-GR</t>
@@ -3430,7 +5562,11 @@
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr">
         <is>
           <t>Y1080-GR</t>
@@ -3489,9 +5625,67 @@
       </c>
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>Y1075-RE</t>
+        </is>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0.01794</v>
+      </c>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Y1071-RE</t>
+        </is>
+      </c>
+      <c r="AP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR33" t="inlineStr"/>
+      <c r="AS33" t="inlineStr"/>
+      <c r="AT33" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU33" t="inlineStr">
+        <is>
+          <t>Y1071-RE</t>
+        </is>
+      </c>
+      <c r="AV33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>0.01776</v>
+      </c>
+      <c r="AX33" t="inlineStr"/>
+      <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Y1083</t>
@@ -3505,7 +5699,11 @@
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr">
         <is>
           <t>Y1081-RE</t>
@@ -3519,7 +5717,11 @@
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr">
         <is>
           <t>Y1081-BL</t>
@@ -3578,9 +5780,67 @@
       </c>
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>Y1076-BG</t>
+        </is>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0.02928</v>
+      </c>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>Y1071-WH</t>
+        </is>
+      </c>
+      <c r="AP34" t="n">
+        <v>41.94</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0.03725</v>
+      </c>
+      <c r="AR34" t="inlineStr"/>
+      <c r="AS34" t="inlineStr"/>
+      <c r="AT34" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU34" t="inlineStr">
+        <is>
+          <t>Y1071-WH</t>
+        </is>
+      </c>
+      <c r="AV34" t="n">
+        <v>41.94</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>0.05789</v>
+      </c>
+      <c r="AX34" t="inlineStr"/>
+      <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Y1084</t>
@@ -3594,7 +5854,11 @@
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
           <t>Y1083</t>
@@ -3608,7 +5872,11 @@
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr">
         <is>
           <t>Y1081-RE</t>
@@ -3667,9 +5935,67 @@
       </c>
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>Y1076-BL</t>
+        </is>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.02285</v>
+      </c>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>Y1073-BG</t>
+        </is>
+      </c>
+      <c r="AP35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.02624</v>
+      </c>
+      <c r="AR35" t="inlineStr"/>
+      <c r="AS35" t="inlineStr"/>
+      <c r="AT35" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU35" t="inlineStr">
+        <is>
+          <t>Y1073-BG</t>
+        </is>
+      </c>
+      <c r="AV35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>0.02624</v>
+      </c>
+      <c r="AX35" t="inlineStr"/>
+      <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Y1084-ZH</t>
@@ -3683,7 +6009,11 @@
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr">
         <is>
           <t>Y1084</t>
@@ -3697,7 +6027,11 @@
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr">
         <is>
           <t>Y1083</t>
@@ -3756,9 +6090,67 @@
       </c>
       <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>Y1076-MG</t>
+        </is>
+      </c>
+      <c r="AJ36" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0.02505</v>
+      </c>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>Y1074-BG</t>
+        </is>
+      </c>
+      <c r="AP36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0.02602</v>
+      </c>
+      <c r="AR36" t="inlineStr"/>
+      <c r="AS36" t="inlineStr"/>
+      <c r="AT36" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU36" t="inlineStr">
+        <is>
+          <t>Y1074-BG</t>
+        </is>
+      </c>
+      <c r="AV36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>0.03108</v>
+      </c>
+      <c r="AX36" t="inlineStr"/>
+      <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Y1085</t>
@@ -3772,7 +6164,11 @@
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr">
         <is>
           <t>Y1084-ZH</t>
@@ -3786,7 +6182,11 @@
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr">
         <is>
           <t>Y1084</t>
@@ -3845,9 +6245,67 @@
       </c>
       <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>Y1076-RE</t>
+        </is>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0.01829</v>
+      </c>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>Y1074-BL</t>
+        </is>
+      </c>
+      <c r="AP37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0.01558</v>
+      </c>
+      <c r="AR37" t="inlineStr"/>
+      <c r="AS37" t="inlineStr"/>
+      <c r="AT37" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU37" t="inlineStr">
+        <is>
+          <t>Y1074-BL</t>
+        </is>
+      </c>
+      <c r="AV37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>0.02511</v>
+      </c>
+      <c r="AX37" t="inlineStr"/>
+      <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Y1087</t>
@@ -3861,7 +6319,11 @@
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr">
         <is>
           <t>Y1085</t>
@@ -3875,7 +6337,11 @@
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr">
         <is>
           <t>Y1084-ZH</t>
@@ -3934,9 +6400,67 @@
       </c>
       <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>Y1076-WH</t>
+        </is>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.00334</v>
+      </c>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>Y1074-MG</t>
+        </is>
+      </c>
+      <c r="AP38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.01339</v>
+      </c>
+      <c r="AR38" t="inlineStr"/>
+      <c r="AS38" t="inlineStr"/>
+      <c r="AT38" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU38" t="inlineStr">
+        <is>
+          <t>Y1074-MG</t>
+        </is>
+      </c>
+      <c r="AV38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>0.01531</v>
+      </c>
+      <c r="AX38" t="inlineStr"/>
+      <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Y1088</t>
@@ -3950,7 +6474,11 @@
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
           <t>Y1087</t>
@@ -3964,7 +6492,11 @@
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr">
         <is>
           <t>Y1085</t>
@@ -4023,9 +6555,67 @@
       </c>
       <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>Y1078-BL</t>
+        </is>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.02845</v>
+      </c>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>Y1075-BG</t>
+        </is>
+      </c>
+      <c r="AP39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.04397</v>
+      </c>
+      <c r="AR39" t="inlineStr"/>
+      <c r="AS39" t="inlineStr"/>
+      <c r="AT39" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU39" t="inlineStr">
+        <is>
+          <t>Y1075-BG</t>
+        </is>
+      </c>
+      <c r="AV39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>0.05726</v>
+      </c>
+      <c r="AX39" t="inlineStr"/>
+      <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr"/>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Y1089</t>
@@ -4039,7 +6629,11 @@
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
           <t>Y1088</t>
@@ -4053,7 +6647,11 @@
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr">
         <is>
           <t>Y1087</t>
@@ -4112,9 +6710,67 @@
       </c>
       <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>Y1078-GRA</t>
+        </is>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.03115</v>
+      </c>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>Y1075-BL</t>
+        </is>
+      </c>
+      <c r="AP40" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0.04563</v>
+      </c>
+      <c r="AR40" t="inlineStr"/>
+      <c r="AS40" t="inlineStr"/>
+      <c r="AT40" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU40" t="inlineStr">
+        <is>
+          <t>Y1075-BL</t>
+        </is>
+      </c>
+      <c r="AV40" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>0.06353</v>
+      </c>
+      <c r="AX40" t="inlineStr"/>
+      <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Y1094-YW</t>
@@ -4128,7 +6784,11 @@
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr">
         <is>
           <t>Y1088-ZH</t>
@@ -4142,7 +6802,11 @@
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr">
         <is>
           <t>Y1088</t>
@@ -4201,9 +6865,67 @@
       </c>
       <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="inlineStr"/>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>Y1079-BL</t>
+        </is>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.01456</v>
+      </c>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="inlineStr"/>
+      <c r="AN41" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>Y1075-MG</t>
+        </is>
+      </c>
+      <c r="AP41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.03577</v>
+      </c>
+      <c r="AR41" t="inlineStr"/>
+      <c r="AS41" t="inlineStr"/>
+      <c r="AT41" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU41" t="inlineStr">
+        <is>
+          <t>Y1075-MG</t>
+        </is>
+      </c>
+      <c r="AV41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>0.04679</v>
+      </c>
+      <c r="AX41" t="inlineStr"/>
+      <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr"/>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Y1095</t>
@@ -4217,7 +6939,11 @@
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr">
         <is>
           <t>Y1089</t>
@@ -4231,7 +6957,11 @@
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr">
         <is>
           <t>Y1088-ZH</t>
@@ -4290,9 +7020,67 @@
       </c>
       <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="inlineStr"/>
+      <c r="AH42" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI42" t="inlineStr">
+        <is>
+          <t>Y1079-WH</t>
+        </is>
+      </c>
+      <c r="AJ42" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0.02036</v>
+      </c>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="inlineStr"/>
+      <c r="AN42" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>Y1075-RE</t>
+        </is>
+      </c>
+      <c r="AP42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.02637</v>
+      </c>
+      <c r="AR42" t="inlineStr"/>
+      <c r="AS42" t="inlineStr"/>
+      <c r="AT42" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU42" t="inlineStr">
+        <is>
+          <t>Y1075-RE</t>
+        </is>
+      </c>
+      <c r="AV42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>0.03152</v>
+      </c>
+      <c r="AX42" t="inlineStr"/>
+      <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Y1096-2</t>
@@ -4306,7 +7094,11 @@
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr">
         <is>
           <t>Y1094-YW</t>
@@ -4320,7 +7112,11 @@
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr">
         <is>
           <t>Y1089</t>
@@ -4379,9 +7175,67 @@
       </c>
       <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="inlineStr"/>
+      <c r="AH43" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI43" t="inlineStr">
+        <is>
+          <t>Y1081-BG</t>
+        </is>
+      </c>
+      <c r="AJ43" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0.03049</v>
+      </c>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="inlineStr"/>
+      <c r="AN43" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>Y1076-BG</t>
+        </is>
+      </c>
+      <c r="AP43" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.06243</v>
+      </c>
+      <c r="AR43" t="inlineStr"/>
+      <c r="AS43" t="inlineStr"/>
+      <c r="AT43" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU43" t="inlineStr">
+        <is>
+          <t>Y1076-BG</t>
+        </is>
+      </c>
+      <c r="AV43" t="n">
+        <v>21.97</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>0.11391</v>
+      </c>
+      <c r="AX43" t="inlineStr"/>
+      <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr"/>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Y1097-BU</t>
@@ -4395,7 +7249,11 @@
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr">
         <is>
           <t>Y1095</t>
@@ -4409,7 +7267,11 @@
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr">
         <is>
           <t>Y1094-YW</t>
@@ -4468,9 +7330,67 @@
       </c>
       <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="inlineStr"/>
+      <c r="AH44" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>Y1081-RE</t>
+        </is>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0.03779</v>
+      </c>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="inlineStr"/>
+      <c r="AN44" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO44" t="inlineStr">
+        <is>
+          <t>Y1076-BL</t>
+        </is>
+      </c>
+      <c r="AP44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0.04698</v>
+      </c>
+      <c r="AR44" t="inlineStr"/>
+      <c r="AS44" t="inlineStr"/>
+      <c r="AT44" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU44" t="inlineStr">
+        <is>
+          <t>Y1076-BL</t>
+        </is>
+      </c>
+      <c r="AV44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>0.12416</v>
+      </c>
+      <c r="AX44" t="inlineStr"/>
+      <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr"/>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Y1099-RE</t>
@@ -4484,7 +7404,11 @@
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr">
         <is>
           <t>Y1096-2</t>
@@ -4498,7 +7422,11 @@
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr">
         <is>
           <t>Y1095</t>
@@ -4557,9 +7485,67 @@
       </c>
       <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="inlineStr"/>
+      <c r="AH45" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI45" t="inlineStr">
+        <is>
+          <t>Y1081-WH</t>
+        </is>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0.02727</v>
+      </c>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="inlineStr"/>
+      <c r="AN45" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO45" t="inlineStr">
+        <is>
+          <t>Y1076-MG</t>
+        </is>
+      </c>
+      <c r="AP45" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0.0505</v>
+      </c>
+      <c r="AR45" t="inlineStr"/>
+      <c r="AS45" t="inlineStr"/>
+      <c r="AT45" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU45" t="inlineStr">
+        <is>
+          <t>Y1076-MG</t>
+        </is>
+      </c>
+      <c r="AV45" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="AX45" t="inlineStr"/>
+      <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr"/>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Y1103-BL</t>
@@ -4573,7 +7559,11 @@
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr">
         <is>
           <t>Y1097-BU</t>
@@ -4587,7 +7577,11 @@
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr">
         <is>
           <t>Y1096-2</t>
@@ -4646,9 +7640,67 @@
       </c>
       <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="inlineStr"/>
+      <c r="AH46" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI46" t="inlineStr">
+        <is>
+          <t>Y1083</t>
+        </is>
+      </c>
+      <c r="AJ46" t="n">
+        <v>54.97</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0.2239</v>
+      </c>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="inlineStr"/>
+      <c r="AN46" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO46" t="inlineStr">
+        <is>
+          <t>Y1076-RE</t>
+        </is>
+      </c>
+      <c r="AP46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>0.03003</v>
+      </c>
+      <c r="AR46" t="inlineStr"/>
+      <c r="AS46" t="inlineStr"/>
+      <c r="AT46" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU46" t="inlineStr">
+        <is>
+          <t>Y1076-RE</t>
+        </is>
+      </c>
+      <c r="AV46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>0.06761</v>
+      </c>
+      <c r="AX46" t="inlineStr"/>
+      <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Y1103-SI</t>
@@ -4662,7 +7714,11 @@
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr">
         <is>
           <t>Y1099-RE</t>
@@ -4676,7 +7732,11 @@
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr">
         <is>
           <t>Y1097-BU</t>
@@ -4735,6 +7795,60 @@
       </c>
       <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="inlineStr"/>
+      <c r="AH47" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI47" t="inlineStr">
+        <is>
+          <t>Y1084</t>
+        </is>
+      </c>
+      <c r="AJ47" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>3.94601</v>
+      </c>
+      <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="inlineStr"/>
+      <c r="AN47" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO47" t="inlineStr">
+        <is>
+          <t>Y1076-WH</t>
+        </is>
+      </c>
+      <c r="AP47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>0.01875</v>
+      </c>
+      <c r="AR47" t="inlineStr"/>
+      <c r="AS47" t="inlineStr"/>
+      <c r="AT47" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU47" t="inlineStr">
+        <is>
+          <t>Y1076-WH</t>
+        </is>
+      </c>
+      <c r="AV47" t="n">
+        <v>26.97</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>0.08888</v>
+      </c>
+      <c r="AX47" t="inlineStr"/>
+      <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4755,7 +7869,11 @@
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr">
         <is>
           <t>Y1103-BL</t>
@@ -4769,7 +7887,11 @@
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr">
         <is>
           <t>Y1099-RE</t>
@@ -4828,9 +7950,67 @@
       </c>
       <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="inlineStr"/>
+      <c r="AH48" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI48" t="inlineStr">
+        <is>
+          <t>Y1084-ZH</t>
+        </is>
+      </c>
+      <c r="AJ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0.10827</v>
+      </c>
+      <c r="AL48" t="inlineStr"/>
+      <c r="AM48" t="inlineStr"/>
+      <c r="AN48" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO48" t="inlineStr">
+        <is>
+          <t>Y1078-BL</t>
+        </is>
+      </c>
+      <c r="AP48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0.02845</v>
+      </c>
+      <c r="AR48" t="inlineStr"/>
+      <c r="AS48" t="inlineStr"/>
+      <c r="AT48" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU48" t="inlineStr">
+        <is>
+          <t>Y1078-BL</t>
+        </is>
+      </c>
+      <c r="AV48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>0.03342</v>
+      </c>
+      <c r="AX48" t="inlineStr"/>
+      <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr"/>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2店</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Y2010</t>
@@ -4844,7 +8024,11 @@
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr">
         <is>
           <t>Y1103-SI</t>
@@ -4858,7 +8042,11 @@
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr">
         <is>
           <t>Y1103-BL</t>
@@ -4917,9 +8105,67 @@
       </c>
       <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="inlineStr"/>
+      <c r="AH49" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI49" t="inlineStr">
+        <is>
+          <t>Y1085</t>
+        </is>
+      </c>
+      <c r="AJ49" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>4.823700000000001</v>
+      </c>
+      <c r="AL49" t="inlineStr"/>
+      <c r="AM49" t="inlineStr"/>
+      <c r="AN49" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO49" t="inlineStr">
+        <is>
+          <t>Y1078-GRA</t>
+        </is>
+      </c>
+      <c r="AP49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>0.03115</v>
+      </c>
+      <c r="AR49" t="inlineStr"/>
+      <c r="AS49" t="inlineStr"/>
+      <c r="AT49" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU49" t="inlineStr">
+        <is>
+          <t>Y1078-GRA</t>
+        </is>
+      </c>
+      <c r="AV49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>0.03406</v>
+      </c>
+      <c r="AX49" t="inlineStr"/>
+      <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2店</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Y2014-1-4</t>
@@ -4951,7 +8197,11 @@
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr">
         <is>
           <t>Y1103-SI</t>
@@ -5010,9 +8260,67 @@
       </c>
       <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="inlineStr"/>
+      <c r="AH50" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI50" t="inlineStr">
+        <is>
+          <t>Y1087</t>
+        </is>
+      </c>
+      <c r="AJ50" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>3.65304</v>
+      </c>
+      <c r="AL50" t="inlineStr"/>
+      <c r="AM50" t="inlineStr"/>
+      <c r="AN50" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO50" t="inlineStr">
+        <is>
+          <t>Y1079-BL</t>
+        </is>
+      </c>
+      <c r="AP50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>0.01456</v>
+      </c>
+      <c r="AR50" t="inlineStr"/>
+      <c r="AS50" t="inlineStr"/>
+      <c r="AT50" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU50" t="inlineStr">
+        <is>
+          <t>Y1079-BL</t>
+        </is>
+      </c>
+      <c r="AV50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>0.01456</v>
+      </c>
+      <c r="AX50" t="inlineStr"/>
+      <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr"/>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2店</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Y2014-5</t>
@@ -5026,7 +8334,11 @@
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2店</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr">
         <is>
           <t>Y2010</t>
@@ -5103,9 +8415,67 @@
       </c>
       <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="inlineStr"/>
+      <c r="AH51" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI51" t="inlineStr">
+        <is>
+          <t>Y1088</t>
+        </is>
+      </c>
+      <c r="AJ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>0.17699</v>
+      </c>
+      <c r="AL51" t="inlineStr"/>
+      <c r="AM51" t="inlineStr"/>
+      <c r="AN51" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO51" t="inlineStr">
+        <is>
+          <t>Y1079-WH</t>
+        </is>
+      </c>
+      <c r="AP51" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>0.02036</v>
+      </c>
+      <c r="AR51" t="inlineStr"/>
+      <c r="AS51" t="inlineStr"/>
+      <c r="AT51" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU51" t="inlineStr">
+        <is>
+          <t>Y1079-WH</t>
+        </is>
+      </c>
+      <c r="AV51" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>0.02274</v>
+      </c>
+      <c r="AX51" t="inlineStr"/>
+      <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr"/>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2店</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Y2015</t>
@@ -5119,7 +8489,11 @@
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2店</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr">
         <is>
           <t>Y2014-1-4</t>
@@ -5133,7 +8507,11 @@
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>2店</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr">
         <is>
           <t>Y2008-BL-1</t>
@@ -5192,6 +8570,60 @@
       </c>
       <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="inlineStr"/>
+      <c r="AH52" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI52" t="inlineStr">
+        <is>
+          <t>Y1088-ZH</t>
+        </is>
+      </c>
+      <c r="AJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL52" t="inlineStr"/>
+      <c r="AM52" t="inlineStr"/>
+      <c r="AN52" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO52" t="inlineStr">
+        <is>
+          <t>Y1080-BU</t>
+        </is>
+      </c>
+      <c r="AP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR52" t="inlineStr"/>
+      <c r="AS52" t="inlineStr"/>
+      <c r="AT52" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU52" t="inlineStr">
+        <is>
+          <t>Y1080-BU</t>
+        </is>
+      </c>
+      <c r="AV52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX52" t="inlineStr"/>
+      <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
@@ -5200,7 +8632,11 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2店</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr">
         <is>
           <t>Y2014-5</t>
@@ -5214,7 +8650,11 @@
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>2店</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr">
         <is>
           <t>Y2010</t>
@@ -5273,6 +8713,60 @@
       </c>
       <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="inlineStr"/>
+      <c r="AH53" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI53" t="inlineStr">
+        <is>
+          <t>Y1089</t>
+        </is>
+      </c>
+      <c r="AJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>0.17841</v>
+      </c>
+      <c r="AL53" t="inlineStr"/>
+      <c r="AM53" t="inlineStr"/>
+      <c r="AN53" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO53" t="inlineStr">
+        <is>
+          <t>Y1080-GR</t>
+        </is>
+      </c>
+      <c r="AP53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR53" t="inlineStr"/>
+      <c r="AS53" t="inlineStr"/>
+      <c r="AT53" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU53" t="inlineStr">
+        <is>
+          <t>Y1080-GR</t>
+        </is>
+      </c>
+      <c r="AV53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX53" t="inlineStr"/>
+      <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
@@ -5281,7 +8775,11 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2店</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr">
         <is>
           <t>Y2015</t>
@@ -5295,7 +8793,11 @@
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>2店</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr">
         <is>
           <t>Y2014-1-4</t>
@@ -5354,6 +8856,60 @@
       </c>
       <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="inlineStr"/>
+      <c r="AH54" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI54" t="inlineStr">
+        <is>
+          <t>Y1095</t>
+        </is>
+      </c>
+      <c r="AJ54" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>0.03378</v>
+      </c>
+      <c r="AL54" t="inlineStr"/>
+      <c r="AM54" t="inlineStr"/>
+      <c r="AN54" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO54" t="inlineStr">
+        <is>
+          <t>Y1080-GRA</t>
+        </is>
+      </c>
+      <c r="AP54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR54" t="inlineStr"/>
+      <c r="AS54" t="inlineStr"/>
+      <c r="AT54" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU54" t="inlineStr">
+        <is>
+          <t>Y1080-GRA</t>
+        </is>
+      </c>
+      <c r="AV54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX54" t="inlineStr"/>
+      <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
@@ -5368,7 +8924,11 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>2店</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr">
         <is>
           <t>Y2014-5</t>
@@ -5427,6 +8987,60 @@
       </c>
       <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="inlineStr"/>
+      <c r="AH55" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI55" t="inlineStr">
+        <is>
+          <t>Y1096-2</t>
+        </is>
+      </c>
+      <c r="AJ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>0.0035</v>
+      </c>
+      <c r="AL55" t="inlineStr"/>
+      <c r="AM55" t="inlineStr"/>
+      <c r="AN55" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO55" t="inlineStr">
+        <is>
+          <t>Y1081-BG</t>
+        </is>
+      </c>
+      <c r="AP55" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>0.04402</v>
+      </c>
+      <c r="AR55" t="inlineStr"/>
+      <c r="AS55" t="inlineStr"/>
+      <c r="AT55" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU55" t="inlineStr">
+        <is>
+          <t>Y1081-BG</t>
+        </is>
+      </c>
+      <c r="AV55" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>0.04882</v>
+      </c>
+      <c r="AX55" t="inlineStr"/>
+      <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
@@ -5441,7 +9055,11 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>2店</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr">
         <is>
           <t>Y2015</t>
@@ -5500,6 +9118,60 @@
       </c>
       <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="inlineStr"/>
+      <c r="AH56" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI56" t="inlineStr">
+        <is>
+          <t>Y1097-BU</t>
+        </is>
+      </c>
+      <c r="AJ56" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>0.21976</v>
+      </c>
+      <c r="AL56" t="inlineStr"/>
+      <c r="AM56" t="inlineStr"/>
+      <c r="AN56" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO56" t="inlineStr">
+        <is>
+          <t>Y1081-BL</t>
+        </is>
+      </c>
+      <c r="AP56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR56" t="inlineStr"/>
+      <c r="AS56" t="inlineStr"/>
+      <c r="AT56" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU56" t="inlineStr">
+        <is>
+          <t>Y1081-BL</t>
+        </is>
+      </c>
+      <c r="AV56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>0.00249</v>
+      </c>
+      <c r="AX56" t="inlineStr"/>
+      <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr"/>
@@ -5565,6 +9237,60 @@
       </c>
       <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="inlineStr"/>
+      <c r="AH57" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI57" t="inlineStr">
+        <is>
+          <t>Y1097-RE</t>
+        </is>
+      </c>
+      <c r="AJ57" t="n">
+        <v>36.98</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>0.18751</v>
+      </c>
+      <c r="AL57" t="inlineStr"/>
+      <c r="AM57" t="inlineStr"/>
+      <c r="AN57" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO57" t="inlineStr">
+        <is>
+          <t>Y1081-RE</t>
+        </is>
+      </c>
+      <c r="AP57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>0.06008</v>
+      </c>
+      <c r="AR57" t="inlineStr"/>
+      <c r="AS57" t="inlineStr"/>
+      <c r="AT57" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU57" t="inlineStr">
+        <is>
+          <t>Y1081-RE</t>
+        </is>
+      </c>
+      <c r="AV57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>0.06008</v>
+      </c>
+      <c r="AX57" t="inlineStr"/>
+      <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
@@ -5630,6 +9356,60 @@
       </c>
       <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="inlineStr"/>
+      <c r="AH58" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI58" t="inlineStr">
+        <is>
+          <t>Y1099</t>
+        </is>
+      </c>
+      <c r="AJ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>0.15734</v>
+      </c>
+      <c r="AL58" t="inlineStr"/>
+      <c r="AM58" t="inlineStr"/>
+      <c r="AN58" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO58" t="inlineStr">
+        <is>
+          <t>Y1081-WH</t>
+        </is>
+      </c>
+      <c r="AP58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>0.04149</v>
+      </c>
+      <c r="AR58" t="inlineStr"/>
+      <c r="AS58" t="inlineStr"/>
+      <c r="AT58" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU58" t="inlineStr">
+        <is>
+          <t>Y1081-WH</t>
+        </is>
+      </c>
+      <c r="AV58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>0.04776</v>
+      </c>
+      <c r="AX58" t="inlineStr"/>
+      <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
@@ -5695,6 +9475,60 @@
       </c>
       <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="inlineStr"/>
+      <c r="AH59" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI59" t="inlineStr">
+        <is>
+          <t>Y1099-RE</t>
+        </is>
+      </c>
+      <c r="AJ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>0.34236</v>
+      </c>
+      <c r="AL59" t="inlineStr"/>
+      <c r="AM59" t="inlineStr"/>
+      <c r="AN59" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO59" t="inlineStr">
+        <is>
+          <t>Y1082</t>
+        </is>
+      </c>
+      <c r="AP59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR59" t="inlineStr"/>
+      <c r="AS59" t="inlineStr"/>
+      <c r="AT59" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU59" t="inlineStr">
+        <is>
+          <t>Y1082</t>
+        </is>
+      </c>
+      <c r="AV59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX59" t="inlineStr"/>
+      <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
@@ -5760,6 +9594,60 @@
       </c>
       <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="inlineStr"/>
+      <c r="AH60" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI60" t="inlineStr">
+        <is>
+          <t>Y1100-GA</t>
+        </is>
+      </c>
+      <c r="AJ60" t="n">
+        <v>63.97</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>0.38082</v>
+      </c>
+      <c r="AL60" t="inlineStr"/>
+      <c r="AM60" t="inlineStr"/>
+      <c r="AN60" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO60" t="inlineStr">
+        <is>
+          <t>Y1083</t>
+        </is>
+      </c>
+      <c r="AP60" t="n">
+        <v>54.97</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>10.88544</v>
+      </c>
+      <c r="AR60" t="inlineStr"/>
+      <c r="AS60" t="inlineStr"/>
+      <c r="AT60" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU60" t="inlineStr">
+        <is>
+          <t>Y1083</t>
+        </is>
+      </c>
+      <c r="AV60" t="n">
+        <v>94.95</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>11.21417</v>
+      </c>
+      <c r="AX60" t="inlineStr"/>
+      <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
@@ -5815,6 +9703,60 @@
       </c>
       <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="inlineStr"/>
+      <c r="AH61" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI61" t="inlineStr">
+        <is>
+          <t>Y1100-RE</t>
+        </is>
+      </c>
+      <c r="AJ61" t="n">
+        <v>23.98</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0.44679</v>
+      </c>
+      <c r="AL61" t="inlineStr"/>
+      <c r="AM61" t="inlineStr"/>
+      <c r="AN61" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO61" t="inlineStr">
+        <is>
+          <t>Y1084</t>
+        </is>
+      </c>
+      <c r="AP61" t="n">
+        <v>63.95999999999999</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>8.343719999999999</v>
+      </c>
+      <c r="AR61" t="inlineStr"/>
+      <c r="AS61" t="inlineStr"/>
+      <c r="AT61" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU61" t="inlineStr">
+        <is>
+          <t>Y1084</t>
+        </is>
+      </c>
+      <c r="AV61" t="n">
+        <v>138.91</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>9.05667</v>
+      </c>
+      <c r="AX61" t="inlineStr"/>
+      <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
@@ -5870,6 +9812,60 @@
       </c>
       <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="inlineStr"/>
+      <c r="AH62" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI62" t="inlineStr">
+        <is>
+          <t>Y1103-BL</t>
+        </is>
+      </c>
+      <c r="AJ62" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>0.08626</v>
+      </c>
+      <c r="AL62" t="inlineStr"/>
+      <c r="AM62" t="inlineStr"/>
+      <c r="AN62" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO62" t="inlineStr">
+        <is>
+          <t>Y1084-ZH</t>
+        </is>
+      </c>
+      <c r="AP62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>0.19133</v>
+      </c>
+      <c r="AR62" t="inlineStr"/>
+      <c r="AS62" t="inlineStr"/>
+      <c r="AT62" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU62" t="inlineStr">
+        <is>
+          <t>Y1084-ZH</t>
+        </is>
+      </c>
+      <c r="AV62" t="n">
+        <v>96.73</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>0.55361</v>
+      </c>
+      <c r="AX62" t="inlineStr"/>
+      <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr"/>
@@ -5925,6 +9921,60 @@
       </c>
       <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="inlineStr"/>
+      <c r="AH63" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI63" t="inlineStr">
+        <is>
+          <t>Y1103-SI</t>
+        </is>
+      </c>
+      <c r="AJ63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>0.11437</v>
+      </c>
+      <c r="AL63" t="inlineStr"/>
+      <c r="AM63" t="inlineStr"/>
+      <c r="AN63" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO63" t="inlineStr">
+        <is>
+          <t>Y1085</t>
+        </is>
+      </c>
+      <c r="AP63" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>8.3886</v>
+      </c>
+      <c r="AR63" t="inlineStr"/>
+      <c r="AS63" t="inlineStr"/>
+      <c r="AT63" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU63" t="inlineStr">
+        <is>
+          <t>Y1085</t>
+        </is>
+      </c>
+      <c r="AV63" t="n">
+        <v>191.71</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>8.83231</v>
+      </c>
+      <c r="AX63" t="inlineStr"/>
+      <c r="AY63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
@@ -5980,6 +10030,60 @@
       </c>
       <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="inlineStr"/>
+      <c r="AH64" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AI64" t="inlineStr">
+        <is>
+          <t>Y1104</t>
+        </is>
+      </c>
+      <c r="AJ64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>2.46597</v>
+      </c>
+      <c r="AL64" t="inlineStr"/>
+      <c r="AM64" t="inlineStr"/>
+      <c r="AN64" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO64" t="inlineStr">
+        <is>
+          <t>Y1086</t>
+        </is>
+      </c>
+      <c r="AP64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR64" t="inlineStr"/>
+      <c r="AS64" t="inlineStr"/>
+      <c r="AT64" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU64" t="inlineStr">
+        <is>
+          <t>Y1086</t>
+        </is>
+      </c>
+      <c r="AV64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX64" t="inlineStr"/>
+      <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
@@ -6035,6 +10139,48 @@
       </c>
       <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="inlineStr"/>
+      <c r="AH65" t="inlineStr"/>
+      <c r="AI65" t="inlineStr"/>
+      <c r="AJ65" t="inlineStr"/>
+      <c r="AK65" t="inlineStr"/>
+      <c r="AL65" t="inlineStr"/>
+      <c r="AM65" t="inlineStr"/>
+      <c r="AN65" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO65" t="inlineStr">
+        <is>
+          <t>Y1087</t>
+        </is>
+      </c>
+      <c r="AP65" t="n">
+        <v>29.97</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>7.38521</v>
+      </c>
+      <c r="AR65" t="inlineStr"/>
+      <c r="AS65" t="inlineStr"/>
+      <c r="AT65" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU65" t="inlineStr">
+        <is>
+          <t>Y1087</t>
+        </is>
+      </c>
+      <c r="AV65" t="n">
+        <v>137.91</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>7.86526</v>
+      </c>
+      <c r="AX65" t="inlineStr"/>
+      <c r="AY65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
@@ -6090,6 +10236,48 @@
       </c>
       <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="inlineStr"/>
+      <c r="AH66" t="inlineStr"/>
+      <c r="AI66" t="inlineStr"/>
+      <c r="AJ66" t="inlineStr"/>
+      <c r="AK66" t="inlineStr"/>
+      <c r="AL66" t="inlineStr"/>
+      <c r="AM66" t="inlineStr"/>
+      <c r="AN66" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO66" t="inlineStr">
+        <is>
+          <t>Y1088</t>
+        </is>
+      </c>
+      <c r="AP66" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>0.29737</v>
+      </c>
+      <c r="AR66" t="inlineStr"/>
+      <c r="AS66" t="inlineStr"/>
+      <c r="AT66" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU66" t="inlineStr">
+        <is>
+          <t>Y1088</t>
+        </is>
+      </c>
+      <c r="AV66" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>0.39895</v>
+      </c>
+      <c r="AX66" t="inlineStr"/>
+      <c r="AY66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
@@ -6145,6 +10333,48 @@
       </c>
       <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="inlineStr"/>
+      <c r="AH67" t="inlineStr"/>
+      <c r="AI67" t="inlineStr"/>
+      <c r="AJ67" t="inlineStr"/>
+      <c r="AK67" t="inlineStr"/>
+      <c r="AL67" t="inlineStr"/>
+      <c r="AM67" t="inlineStr"/>
+      <c r="AN67" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO67" t="inlineStr">
+        <is>
+          <t>Y1088-ZH</t>
+        </is>
+      </c>
+      <c r="AP67" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>0.13781</v>
+      </c>
+      <c r="AR67" t="inlineStr"/>
+      <c r="AS67" t="inlineStr"/>
+      <c r="AT67" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU67" t="inlineStr">
+        <is>
+          <t>Y1088-ZH</t>
+        </is>
+      </c>
+      <c r="AV67" t="n">
+        <v>63.95</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>0.4297</v>
+      </c>
+      <c r="AX67" t="inlineStr"/>
+      <c r="AY67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
@@ -6200,6 +10430,48 @@
       </c>
       <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="inlineStr"/>
+      <c r="AH68" t="inlineStr"/>
+      <c r="AI68" t="inlineStr"/>
+      <c r="AJ68" t="inlineStr"/>
+      <c r="AK68" t="inlineStr"/>
+      <c r="AL68" t="inlineStr"/>
+      <c r="AM68" t="inlineStr"/>
+      <c r="AN68" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO68" t="inlineStr">
+        <is>
+          <t>Y1089</t>
+        </is>
+      </c>
+      <c r="AP68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>0.31324</v>
+      </c>
+      <c r="AR68" t="inlineStr"/>
+      <c r="AS68" t="inlineStr"/>
+      <c r="AT68" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU68" t="inlineStr">
+        <is>
+          <t>Y1089</t>
+        </is>
+      </c>
+      <c r="AV68" t="n">
+        <v>39.78</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>0.74848</v>
+      </c>
+      <c r="AX68" t="inlineStr"/>
+      <c r="AY68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
@@ -6255,6 +10527,48 @@
       </c>
       <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="inlineStr"/>
+      <c r="AH69" t="inlineStr"/>
+      <c r="AI69" t="inlineStr"/>
+      <c r="AJ69" t="inlineStr"/>
+      <c r="AK69" t="inlineStr"/>
+      <c r="AL69" t="inlineStr"/>
+      <c r="AM69" t="inlineStr"/>
+      <c r="AN69" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO69" t="inlineStr">
+        <is>
+          <t>Y1090</t>
+        </is>
+      </c>
+      <c r="AP69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR69" t="inlineStr"/>
+      <c r="AS69" t="inlineStr"/>
+      <c r="AT69" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU69" t="inlineStr">
+        <is>
+          <t>Y1090</t>
+        </is>
+      </c>
+      <c r="AV69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX69" t="inlineStr"/>
+      <c r="AY69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>
@@ -6310,6 +10624,48 @@
       </c>
       <c r="AF70" t="inlineStr"/>
       <c r="AG70" t="inlineStr"/>
+      <c r="AH70" t="inlineStr"/>
+      <c r="AI70" t="inlineStr"/>
+      <c r="AJ70" t="inlineStr"/>
+      <c r="AK70" t="inlineStr"/>
+      <c r="AL70" t="inlineStr"/>
+      <c r="AM70" t="inlineStr"/>
+      <c r="AN70" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO70" t="inlineStr">
+        <is>
+          <t>Y1094-RE</t>
+        </is>
+      </c>
+      <c r="AP70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR70" t="inlineStr"/>
+      <c r="AS70" t="inlineStr"/>
+      <c r="AT70" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU70" t="inlineStr">
+        <is>
+          <t>Y1094-RE</t>
+        </is>
+      </c>
+      <c r="AV70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>1.59578</v>
+      </c>
+      <c r="AX70" t="inlineStr"/>
+      <c r="AY70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>
@@ -6365,6 +10721,48 @@
       </c>
       <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="inlineStr"/>
+      <c r="AH71" t="inlineStr"/>
+      <c r="AI71" t="inlineStr"/>
+      <c r="AJ71" t="inlineStr"/>
+      <c r="AK71" t="inlineStr"/>
+      <c r="AL71" t="inlineStr"/>
+      <c r="AM71" t="inlineStr"/>
+      <c r="AN71" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO71" t="inlineStr">
+        <is>
+          <t>Y1094-YW</t>
+        </is>
+      </c>
+      <c r="AP71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR71" t="inlineStr"/>
+      <c r="AS71" t="inlineStr"/>
+      <c r="AT71" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU71" t="inlineStr">
+        <is>
+          <t>Y1094-YW</t>
+        </is>
+      </c>
+      <c r="AV71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>7.60781</v>
+      </c>
+      <c r="AX71" t="inlineStr"/>
+      <c r="AY71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr"/>
@@ -6420,6 +10818,48 @@
       </c>
       <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="inlineStr"/>
+      <c r="AH72" t="inlineStr"/>
+      <c r="AI72" t="inlineStr"/>
+      <c r="AJ72" t="inlineStr"/>
+      <c r="AK72" t="inlineStr"/>
+      <c r="AL72" t="inlineStr"/>
+      <c r="AM72" t="inlineStr"/>
+      <c r="AN72" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO72" t="inlineStr">
+        <is>
+          <t>Y1095</t>
+        </is>
+      </c>
+      <c r="AP72" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>0.06209</v>
+      </c>
+      <c r="AR72" t="inlineStr"/>
+      <c r="AS72" t="inlineStr"/>
+      <c r="AT72" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU72" t="inlineStr">
+        <is>
+          <t>Y1095</t>
+        </is>
+      </c>
+      <c r="AV72" t="n">
+        <v>19.98</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>0.13875</v>
+      </c>
+      <c r="AX72" t="inlineStr"/>
+      <c r="AY72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
@@ -6475,6 +10915,48 @@
       </c>
       <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="inlineStr"/>
+      <c r="AH73" t="inlineStr"/>
+      <c r="AI73" t="inlineStr"/>
+      <c r="AJ73" t="inlineStr"/>
+      <c r="AK73" t="inlineStr"/>
+      <c r="AL73" t="inlineStr"/>
+      <c r="AM73" t="inlineStr"/>
+      <c r="AN73" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO73" t="inlineStr">
+        <is>
+          <t>Y1096</t>
+        </is>
+      </c>
+      <c r="AP73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR73" t="inlineStr"/>
+      <c r="AS73" t="inlineStr"/>
+      <c r="AT73" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU73" t="inlineStr">
+        <is>
+          <t>Y1096</t>
+        </is>
+      </c>
+      <c r="AV73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX73" t="inlineStr"/>
+      <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr"/>
@@ -6530,6 +11012,48 @@
       </c>
       <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="inlineStr"/>
+      <c r="AH74" t="inlineStr"/>
+      <c r="AI74" t="inlineStr"/>
+      <c r="AJ74" t="inlineStr"/>
+      <c r="AK74" t="inlineStr"/>
+      <c r="AL74" t="inlineStr"/>
+      <c r="AM74" t="inlineStr"/>
+      <c r="AN74" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO74" t="inlineStr">
+        <is>
+          <t>Y1096-2</t>
+        </is>
+      </c>
+      <c r="AP74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>0.03567</v>
+      </c>
+      <c r="AR74" t="inlineStr"/>
+      <c r="AS74" t="inlineStr"/>
+      <c r="AT74" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU74" t="inlineStr">
+        <is>
+          <t>Y1096-2</t>
+        </is>
+      </c>
+      <c r="AV74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>0.04723</v>
+      </c>
+      <c r="AX74" t="inlineStr"/>
+      <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr"/>
@@ -6585,6 +11109,48 @@
       </c>
       <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="inlineStr"/>
+      <c r="AH75" t="inlineStr"/>
+      <c r="AI75" t="inlineStr"/>
+      <c r="AJ75" t="inlineStr"/>
+      <c r="AK75" t="inlineStr"/>
+      <c r="AL75" t="inlineStr"/>
+      <c r="AM75" t="inlineStr"/>
+      <c r="AN75" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO75" t="inlineStr">
+        <is>
+          <t>Y1097-BU</t>
+        </is>
+      </c>
+      <c r="AP75" t="n">
+        <v>26.98</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>0.34055</v>
+      </c>
+      <c r="AR75" t="inlineStr"/>
+      <c r="AS75" t="inlineStr"/>
+      <c r="AT75" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU75" t="inlineStr">
+        <is>
+          <t>Y1097-BU</t>
+        </is>
+      </c>
+      <c r="AV75" t="n">
+        <v>54.16</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>0.70038</v>
+      </c>
+      <c r="AX75" t="inlineStr"/>
+      <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr"/>
@@ -6640,6 +11206,48 @@
       </c>
       <c r="AF76" t="inlineStr"/>
       <c r="AG76" t="inlineStr"/>
+      <c r="AH76" t="inlineStr"/>
+      <c r="AI76" t="inlineStr"/>
+      <c r="AJ76" t="inlineStr"/>
+      <c r="AK76" t="inlineStr"/>
+      <c r="AL76" t="inlineStr"/>
+      <c r="AM76" t="inlineStr"/>
+      <c r="AN76" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO76" t="inlineStr">
+        <is>
+          <t>Y1097-RE</t>
+        </is>
+      </c>
+      <c r="AP76" t="n">
+        <v>55.97</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>0.33116</v>
+      </c>
+      <c r="AR76" t="inlineStr"/>
+      <c r="AS76" t="inlineStr"/>
+      <c r="AT76" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU76" t="inlineStr">
+        <is>
+          <t>Y1097-RE</t>
+        </is>
+      </c>
+      <c r="AV76" t="n">
+        <v>161.3</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>0.63609</v>
+      </c>
+      <c r="AX76" t="inlineStr"/>
+      <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr"/>
@@ -6685,6 +11293,48 @@
       </c>
       <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="inlineStr"/>
+      <c r="AH77" t="inlineStr"/>
+      <c r="AI77" t="inlineStr"/>
+      <c r="AJ77" t="inlineStr"/>
+      <c r="AK77" t="inlineStr"/>
+      <c r="AL77" t="inlineStr"/>
+      <c r="AM77" t="inlineStr"/>
+      <c r="AN77" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO77" t="inlineStr">
+        <is>
+          <t>Y1099</t>
+        </is>
+      </c>
+      <c r="AP77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>0.27741</v>
+      </c>
+      <c r="AR77" t="inlineStr"/>
+      <c r="AS77" t="inlineStr"/>
+      <c r="AT77" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU77" t="inlineStr">
+        <is>
+          <t>Y1099</t>
+        </is>
+      </c>
+      <c r="AV77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>0.61108</v>
+      </c>
+      <c r="AX77" t="inlineStr"/>
+      <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr"/>
@@ -6730,6 +11380,48 @@
       </c>
       <c r="AF78" t="inlineStr"/>
       <c r="AG78" t="inlineStr"/>
+      <c r="AH78" t="inlineStr"/>
+      <c r="AI78" t="inlineStr"/>
+      <c r="AJ78" t="inlineStr"/>
+      <c r="AK78" t="inlineStr"/>
+      <c r="AL78" t="inlineStr"/>
+      <c r="AM78" t="inlineStr"/>
+      <c r="AN78" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO78" t="inlineStr">
+        <is>
+          <t>Y1099-RE</t>
+        </is>
+      </c>
+      <c r="AP78" t="n">
+        <v>26.98</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>0.9252699999999999</v>
+      </c>
+      <c r="AR78" t="inlineStr"/>
+      <c r="AS78" t="inlineStr"/>
+      <c r="AT78" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU78" t="inlineStr">
+        <is>
+          <t>Y1099-RE</t>
+        </is>
+      </c>
+      <c r="AV78" t="n">
+        <v>95.34</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>8.45107</v>
+      </c>
+      <c r="AX78" t="inlineStr"/>
+      <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr"/>
@@ -6775,6 +11467,48 @@
       </c>
       <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="inlineStr"/>
+      <c r="AH79" t="inlineStr"/>
+      <c r="AI79" t="inlineStr"/>
+      <c r="AJ79" t="inlineStr"/>
+      <c r="AK79" t="inlineStr"/>
+      <c r="AL79" t="inlineStr"/>
+      <c r="AM79" t="inlineStr"/>
+      <c r="AN79" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO79" t="inlineStr">
+        <is>
+          <t>Y1100-GA</t>
+        </is>
+      </c>
+      <c r="AP79" t="n">
+        <v>115.94</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>0.68179</v>
+      </c>
+      <c r="AR79" t="inlineStr"/>
+      <c r="AS79" t="inlineStr"/>
+      <c r="AT79" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU79" t="inlineStr">
+        <is>
+          <t>Y1100-GA</t>
+        </is>
+      </c>
+      <c r="AV79" t="n">
+        <v>259.05</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>1.41348</v>
+      </c>
+      <c r="AX79" t="inlineStr"/>
+      <c r="AY79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr"/>
@@ -6820,6 +11554,48 @@
       </c>
       <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="inlineStr"/>
+      <c r="AH80" t="inlineStr"/>
+      <c r="AI80" t="inlineStr"/>
+      <c r="AJ80" t="inlineStr"/>
+      <c r="AK80" t="inlineStr"/>
+      <c r="AL80" t="inlineStr"/>
+      <c r="AM80" t="inlineStr"/>
+      <c r="AN80" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO80" t="inlineStr">
+        <is>
+          <t>Y1100-RE</t>
+        </is>
+      </c>
+      <c r="AP80" t="n">
+        <v>95.94</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>0.66383</v>
+      </c>
+      <c r="AR80" t="inlineStr"/>
+      <c r="AS80" t="inlineStr"/>
+      <c r="AT80" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU80" t="inlineStr">
+        <is>
+          <t>Y1100-RE</t>
+        </is>
+      </c>
+      <c r="AV80" t="n">
+        <v>244.64</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>1.43535</v>
+      </c>
+      <c r="AX80" t="inlineStr"/>
+      <c r="AY80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr"/>
@@ -6865,6 +11641,48 @@
       </c>
       <c r="AF81" t="inlineStr"/>
       <c r="AG81" t="inlineStr"/>
+      <c r="AH81" t="inlineStr"/>
+      <c r="AI81" t="inlineStr"/>
+      <c r="AJ81" t="inlineStr"/>
+      <c r="AK81" t="inlineStr"/>
+      <c r="AL81" t="inlineStr"/>
+      <c r="AM81" t="inlineStr"/>
+      <c r="AN81" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO81" t="inlineStr">
+        <is>
+          <t>Y1103-BL</t>
+        </is>
+      </c>
+      <c r="AP81" t="n">
+        <v>46.96</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>0.17364</v>
+      </c>
+      <c r="AR81" t="inlineStr"/>
+      <c r="AS81" t="inlineStr"/>
+      <c r="AT81" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU81" t="inlineStr">
+        <is>
+          <t>Y1103-BL</t>
+        </is>
+      </c>
+      <c r="AV81" t="n">
+        <v>46.96</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>0.23268</v>
+      </c>
+      <c r="AX81" t="inlineStr"/>
+      <c r="AY81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr"/>
@@ -6910,6 +11728,48 @@
       </c>
       <c r="AF82" t="inlineStr"/>
       <c r="AG82" t="inlineStr"/>
+      <c r="AH82" t="inlineStr"/>
+      <c r="AI82" t="inlineStr"/>
+      <c r="AJ82" t="inlineStr"/>
+      <c r="AK82" t="inlineStr"/>
+      <c r="AL82" t="inlineStr"/>
+      <c r="AM82" t="inlineStr"/>
+      <c r="AN82" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO82" t="inlineStr">
+        <is>
+          <t>Y1103-SI</t>
+        </is>
+      </c>
+      <c r="AP82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>0.18974</v>
+      </c>
+      <c r="AR82" t="inlineStr"/>
+      <c r="AS82" t="inlineStr"/>
+      <c r="AT82" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU82" t="inlineStr">
+        <is>
+          <t>Y1103-SI</t>
+        </is>
+      </c>
+      <c r="AV82" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>0.29323</v>
+      </c>
+      <c r="AX82" t="inlineStr"/>
+      <c r="AY82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr"/>
@@ -6955,6 +11815,48 @@
       </c>
       <c r="AF83" t="inlineStr"/>
       <c r="AG83" t="inlineStr"/>
+      <c r="AH83" t="inlineStr"/>
+      <c r="AI83" t="inlineStr"/>
+      <c r="AJ83" t="inlineStr"/>
+      <c r="AK83" t="inlineStr"/>
+      <c r="AL83" t="inlineStr"/>
+      <c r="AM83" t="inlineStr"/>
+      <c r="AN83" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AO83" t="inlineStr">
+        <is>
+          <t>Y1104</t>
+        </is>
+      </c>
+      <c r="AP83" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>13.87164</v>
+      </c>
+      <c r="AR83" t="inlineStr"/>
+      <c r="AS83" t="inlineStr"/>
+      <c r="AT83" t="inlineStr">
+        <is>
+          <t>1店</t>
+        </is>
+      </c>
+      <c r="AU83" t="inlineStr">
+        <is>
+          <t>Y1104</t>
+        </is>
+      </c>
+      <c r="AV83" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>13.87164</v>
+      </c>
+      <c r="AX83" t="inlineStr"/>
+      <c r="AY83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr"/>
@@ -7000,6 +11902,24 @@
       </c>
       <c r="AF84" t="inlineStr"/>
       <c r="AG84" t="inlineStr"/>
+      <c r="AH84" t="inlineStr"/>
+      <c r="AI84" t="inlineStr"/>
+      <c r="AJ84" t="inlineStr"/>
+      <c r="AK84" t="inlineStr"/>
+      <c r="AL84" t="inlineStr"/>
+      <c r="AM84" t="inlineStr"/>
+      <c r="AN84" t="inlineStr"/>
+      <c r="AO84" t="inlineStr"/>
+      <c r="AP84" t="inlineStr"/>
+      <c r="AQ84" t="inlineStr"/>
+      <c r="AR84" t="inlineStr"/>
+      <c r="AS84" t="inlineStr"/>
+      <c r="AT84" t="inlineStr"/>
+      <c r="AU84" t="inlineStr"/>
+      <c r="AV84" t="inlineStr"/>
+      <c r="AW84" t="inlineStr"/>
+      <c r="AX84" t="inlineStr"/>
+      <c r="AY84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr"/>
@@ -7045,6 +11965,24 @@
       </c>
       <c r="AF85" t="inlineStr"/>
       <c r="AG85" t="inlineStr"/>
+      <c r="AH85" t="inlineStr"/>
+      <c r="AI85" t="inlineStr"/>
+      <c r="AJ85" t="inlineStr"/>
+      <c r="AK85" t="inlineStr"/>
+      <c r="AL85" t="inlineStr"/>
+      <c r="AM85" t="inlineStr"/>
+      <c r="AN85" t="inlineStr"/>
+      <c r="AO85" t="inlineStr"/>
+      <c r="AP85" t="inlineStr"/>
+      <c r="AQ85" t="inlineStr"/>
+      <c r="AR85" t="inlineStr"/>
+      <c r="AS85" t="inlineStr"/>
+      <c r="AT85" t="inlineStr"/>
+      <c r="AU85" t="inlineStr"/>
+      <c r="AV85" t="inlineStr"/>
+      <c r="AW85" t="inlineStr"/>
+      <c r="AX85" t="inlineStr"/>
+      <c r="AY85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr"/>
@@ -7090,6 +12028,24 @@
       </c>
       <c r="AF86" t="inlineStr"/>
       <c r="AG86" t="inlineStr"/>
+      <c r="AH86" t="inlineStr"/>
+      <c r="AI86" t="inlineStr"/>
+      <c r="AJ86" t="inlineStr"/>
+      <c r="AK86" t="inlineStr"/>
+      <c r="AL86" t="inlineStr"/>
+      <c r="AM86" t="inlineStr"/>
+      <c r="AN86" t="inlineStr"/>
+      <c r="AO86" t="inlineStr"/>
+      <c r="AP86" t="inlineStr"/>
+      <c r="AQ86" t="inlineStr"/>
+      <c r="AR86" t="inlineStr"/>
+      <c r="AS86" t="inlineStr"/>
+      <c r="AT86" t="inlineStr"/>
+      <c r="AU86" t="inlineStr"/>
+      <c r="AV86" t="inlineStr"/>
+      <c r="AW86" t="inlineStr"/>
+      <c r="AX86" t="inlineStr"/>
+      <c r="AY86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr"/>
@@ -7135,6 +12091,24 @@
       </c>
       <c r="AF87" t="inlineStr"/>
       <c r="AG87" t="inlineStr"/>
+      <c r="AH87" t="inlineStr"/>
+      <c r="AI87" t="inlineStr"/>
+      <c r="AJ87" t="inlineStr"/>
+      <c r="AK87" t="inlineStr"/>
+      <c r="AL87" t="inlineStr"/>
+      <c r="AM87" t="inlineStr"/>
+      <c r="AN87" t="inlineStr"/>
+      <c r="AO87" t="inlineStr"/>
+      <c r="AP87" t="inlineStr"/>
+      <c r="AQ87" t="inlineStr"/>
+      <c r="AR87" t="inlineStr"/>
+      <c r="AS87" t="inlineStr"/>
+      <c r="AT87" t="inlineStr"/>
+      <c r="AU87" t="inlineStr"/>
+      <c r="AV87" t="inlineStr"/>
+      <c r="AW87" t="inlineStr"/>
+      <c r="AX87" t="inlineStr"/>
+      <c r="AY87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr"/>
@@ -7180,6 +12154,24 @@
       </c>
       <c r="AF88" t="inlineStr"/>
       <c r="AG88" t="inlineStr"/>
+      <c r="AH88" t="inlineStr"/>
+      <c r="AI88" t="inlineStr"/>
+      <c r="AJ88" t="inlineStr"/>
+      <c r="AK88" t="inlineStr"/>
+      <c r="AL88" t="inlineStr"/>
+      <c r="AM88" t="inlineStr"/>
+      <c r="AN88" t="inlineStr"/>
+      <c r="AO88" t="inlineStr"/>
+      <c r="AP88" t="inlineStr"/>
+      <c r="AQ88" t="inlineStr"/>
+      <c r="AR88" t="inlineStr"/>
+      <c r="AS88" t="inlineStr"/>
+      <c r="AT88" t="inlineStr"/>
+      <c r="AU88" t="inlineStr"/>
+      <c r="AV88" t="inlineStr"/>
+      <c r="AW88" t="inlineStr"/>
+      <c r="AX88" t="inlineStr"/>
+      <c r="AY88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr"/>
@@ -7225,6 +12217,24 @@
       </c>
       <c r="AF89" t="inlineStr"/>
       <c r="AG89" t="inlineStr"/>
+      <c r="AH89" t="inlineStr"/>
+      <c r="AI89" t="inlineStr"/>
+      <c r="AJ89" t="inlineStr"/>
+      <c r="AK89" t="inlineStr"/>
+      <c r="AL89" t="inlineStr"/>
+      <c r="AM89" t="inlineStr"/>
+      <c r="AN89" t="inlineStr"/>
+      <c r="AO89" t="inlineStr"/>
+      <c r="AP89" t="inlineStr"/>
+      <c r="AQ89" t="inlineStr"/>
+      <c r="AR89" t="inlineStr"/>
+      <c r="AS89" t="inlineStr"/>
+      <c r="AT89" t="inlineStr"/>
+      <c r="AU89" t="inlineStr"/>
+      <c r="AV89" t="inlineStr"/>
+      <c r="AW89" t="inlineStr"/>
+      <c r="AX89" t="inlineStr"/>
+      <c r="AY89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr"/>
@@ -7270,6 +12280,24 @@
       </c>
       <c r="AF90" t="inlineStr"/>
       <c r="AG90" t="inlineStr"/>
+      <c r="AH90" t="inlineStr"/>
+      <c r="AI90" t="inlineStr"/>
+      <c r="AJ90" t="inlineStr"/>
+      <c r="AK90" t="inlineStr"/>
+      <c r="AL90" t="inlineStr"/>
+      <c r="AM90" t="inlineStr"/>
+      <c r="AN90" t="inlineStr"/>
+      <c r="AO90" t="inlineStr"/>
+      <c r="AP90" t="inlineStr"/>
+      <c r="AQ90" t="inlineStr"/>
+      <c r="AR90" t="inlineStr"/>
+      <c r="AS90" t="inlineStr"/>
+      <c r="AT90" t="inlineStr"/>
+      <c r="AU90" t="inlineStr"/>
+      <c r="AV90" t="inlineStr"/>
+      <c r="AW90" t="inlineStr"/>
+      <c r="AX90" t="inlineStr"/>
+      <c r="AY90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr"/>
@@ -7315,6 +12343,24 @@
       </c>
       <c r="AF91" t="inlineStr"/>
       <c r="AG91" t="inlineStr"/>
+      <c r="AH91" t="inlineStr"/>
+      <c r="AI91" t="inlineStr"/>
+      <c r="AJ91" t="inlineStr"/>
+      <c r="AK91" t="inlineStr"/>
+      <c r="AL91" t="inlineStr"/>
+      <c r="AM91" t="inlineStr"/>
+      <c r="AN91" t="inlineStr"/>
+      <c r="AO91" t="inlineStr"/>
+      <c r="AP91" t="inlineStr"/>
+      <c r="AQ91" t="inlineStr"/>
+      <c r="AR91" t="inlineStr"/>
+      <c r="AS91" t="inlineStr"/>
+      <c r="AT91" t="inlineStr"/>
+      <c r="AU91" t="inlineStr"/>
+      <c r="AV91" t="inlineStr"/>
+      <c r="AW91" t="inlineStr"/>
+      <c r="AX91" t="inlineStr"/>
+      <c r="AY91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr"/>
@@ -7360,6 +12406,24 @@
       </c>
       <c r="AF92" t="inlineStr"/>
       <c r="AG92" t="inlineStr"/>
+      <c r="AH92" t="inlineStr"/>
+      <c r="AI92" t="inlineStr"/>
+      <c r="AJ92" t="inlineStr"/>
+      <c r="AK92" t="inlineStr"/>
+      <c r="AL92" t="inlineStr"/>
+      <c r="AM92" t="inlineStr"/>
+      <c r="AN92" t="inlineStr"/>
+      <c r="AO92" t="inlineStr"/>
+      <c r="AP92" t="inlineStr"/>
+      <c r="AQ92" t="inlineStr"/>
+      <c r="AR92" t="inlineStr"/>
+      <c r="AS92" t="inlineStr"/>
+      <c r="AT92" t="inlineStr"/>
+      <c r="AU92" t="inlineStr"/>
+      <c r="AV92" t="inlineStr"/>
+      <c r="AW92" t="inlineStr"/>
+      <c r="AX92" t="inlineStr"/>
+      <c r="AY92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr"/>
@@ -7405,6 +12469,24 @@
       </c>
       <c r="AF93" t="inlineStr"/>
       <c r="AG93" t="inlineStr"/>
+      <c r="AH93" t="inlineStr"/>
+      <c r="AI93" t="inlineStr"/>
+      <c r="AJ93" t="inlineStr"/>
+      <c r="AK93" t="inlineStr"/>
+      <c r="AL93" t="inlineStr"/>
+      <c r="AM93" t="inlineStr"/>
+      <c r="AN93" t="inlineStr"/>
+      <c r="AO93" t="inlineStr"/>
+      <c r="AP93" t="inlineStr"/>
+      <c r="AQ93" t="inlineStr"/>
+      <c r="AR93" t="inlineStr"/>
+      <c r="AS93" t="inlineStr"/>
+      <c r="AT93" t="inlineStr"/>
+      <c r="AU93" t="inlineStr"/>
+      <c r="AV93" t="inlineStr"/>
+      <c r="AW93" t="inlineStr"/>
+      <c r="AX93" t="inlineStr"/>
+      <c r="AY93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr"/>
@@ -7450,6 +12532,24 @@
       </c>
       <c r="AF94" t="inlineStr"/>
       <c r="AG94" t="inlineStr"/>
+      <c r="AH94" t="inlineStr"/>
+      <c r="AI94" t="inlineStr"/>
+      <c r="AJ94" t="inlineStr"/>
+      <c r="AK94" t="inlineStr"/>
+      <c r="AL94" t="inlineStr"/>
+      <c r="AM94" t="inlineStr"/>
+      <c r="AN94" t="inlineStr"/>
+      <c r="AO94" t="inlineStr"/>
+      <c r="AP94" t="inlineStr"/>
+      <c r="AQ94" t="inlineStr"/>
+      <c r="AR94" t="inlineStr"/>
+      <c r="AS94" t="inlineStr"/>
+      <c r="AT94" t="inlineStr"/>
+      <c r="AU94" t="inlineStr"/>
+      <c r="AV94" t="inlineStr"/>
+      <c r="AW94" t="inlineStr"/>
+      <c r="AX94" t="inlineStr"/>
+      <c r="AY94" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
